--- a/scale2down.xlsx
+++ b/scale2down.xlsx
@@ -407,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K72" sqref="K72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,6 +480,9 @@
       <c r="F3">
         <v>34</v>
       </c>
+      <c r="G3">
+        <v>44</v>
+      </c>
       <c r="I3">
         <v>22</v>
       </c>
@@ -503,6 +506,9 @@
       <c r="F4">
         <v>38</v>
       </c>
+      <c r="G4">
+        <v>48</v>
+      </c>
       <c r="I4">
         <v>30</v>
       </c>
@@ -526,6 +532,9 @@
       <c r="F5">
         <v>46</v>
       </c>
+      <c r="G5">
+        <v>52</v>
+      </c>
       <c r="I5">
         <v>48</v>
       </c>
@@ -618,6 +627,9 @@
       <c r="F11">
         <v>26</v>
       </c>
+      <c r="G11">
+        <v>48</v>
+      </c>
       <c r="I11">
         <v>20</v>
       </c>
@@ -641,6 +653,9 @@
       <c r="F12">
         <v>42</v>
       </c>
+      <c r="G12">
+        <v>48</v>
+      </c>
       <c r="I12">
         <v>36</v>
       </c>
@@ -664,6 +679,9 @@
       <c r="F13">
         <v>52</v>
       </c>
+      <c r="G13">
+        <v>52</v>
+      </c>
       <c r="I13">
         <v>46</v>
       </c>
@@ -756,6 +774,9 @@
       <c r="F19">
         <v>34</v>
       </c>
+      <c r="G19">
+        <v>48</v>
+      </c>
       <c r="I19">
         <v>28</v>
       </c>
@@ -779,6 +800,9 @@
       <c r="F20">
         <v>44</v>
       </c>
+      <c r="G20">
+        <v>52</v>
+      </c>
       <c r="I20">
         <v>44</v>
       </c>
@@ -801,6 +825,9 @@
       </c>
       <c r="F21">
         <v>48</v>
+      </c>
+      <c r="G21">
+        <v>52</v>
       </c>
       <c r="I21">
         <v>52</v>
@@ -905,7 +932,9 @@
       <c r="F26" s="1">
         <v>26</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1">
+        <v>44</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
         <v>26</v>
@@ -933,7 +962,9 @@
       <c r="F27" s="1">
         <v>34</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1">
+        <v>50</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
         <v>32</v>
@@ -961,7 +992,9 @@
       <c r="F28" s="1">
         <v>56</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="1">
+        <v>52</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
         <v>52</v>
@@ -1073,7 +1106,9 @@
       <c r="F33" s="1">
         <v>32</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1">
+        <v>48</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
         <v>18</v>
@@ -1101,7 +1136,9 @@
       <c r="F34" s="1">
         <v>36</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1">
+        <v>48</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1">
         <v>26</v>
@@ -1129,7 +1166,9 @@
       <c r="F35" s="1">
         <v>40</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1">
+        <v>48</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
         <v>40</v>
@@ -1244,7 +1283,9 @@
       <c r="F40" s="1">
         <v>22</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="1">
+        <v>40</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1">
         <v>22</v>
@@ -1273,7 +1314,9 @@
       <c r="F41" s="1">
         <v>32</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1">
+        <v>40</v>
+      </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1">
         <v>30</v>
@@ -1302,7 +1345,9 @@
       <c r="F42" s="1">
         <v>48</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1">
+        <v>48</v>
+      </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1">
         <v>48</v>
@@ -1420,7 +1465,9 @@
       <c r="F47" s="1">
         <v>22</v>
       </c>
-      <c r="G47" s="1"/>
+      <c r="G47" s="1">
+        <v>50</v>
+      </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1">
         <v>18</v>
@@ -1450,7 +1497,9 @@
       <c r="F48" s="1">
         <v>28</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1">
+        <v>48</v>
+      </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1">
         <v>28</v>
@@ -1480,7 +1529,9 @@
       <c r="F49" s="1">
         <v>54</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1">
+        <v>50</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
         <v>46</v>
@@ -1598,7 +1649,9 @@
       <c r="F54" s="1">
         <v>36</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1">
+        <v>46</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1">
         <v>24</v>
@@ -1627,7 +1680,9 @@
       <c r="F55" s="1">
         <v>38</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1">
+        <v>48</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1">
         <v>30</v>
@@ -1656,7 +1711,9 @@
       <c r="F56" s="1">
         <v>50</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1">
+        <v>52</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1">
         <v>48</v>
@@ -1772,7 +1829,9 @@
       <c r="F61" s="1">
         <v>28</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1">
+        <v>56</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1">
         <v>30</v>
@@ -1801,7 +1860,9 @@
       <c r="F62" s="1">
         <v>36</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1">
+        <v>58</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
         <v>38</v>
@@ -1830,7 +1891,9 @@
       <c r="F63" s="1">
         <v>44</v>
       </c>
-      <c r="G63" s="1"/>
+      <c r="G63" s="1">
+        <v>58</v>
+      </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1">
         <v>44</v>
@@ -1964,7 +2027,9 @@
       <c r="F69" s="1">
         <v>32</v>
       </c>
-      <c r="G69" s="1"/>
+      <c r="G69" s="1">
+        <v>48</v>
+      </c>
       <c r="H69" s="1"/>
       <c r="I69" s="1">
         <v>26</v>
@@ -1994,7 +2059,9 @@
       <c r="F70" s="1">
         <v>36</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1">
+        <v>50</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1">
         <v>36</v>
@@ -2024,7 +2091,9 @@
       <c r="F71" s="1">
         <v>48</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1">
+        <v>52</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1">
         <v>46</v>
